--- a/UiBank Test Data.xlsx
+++ b/UiBank Test Data.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
